--- a/02_Data/major regions.xlsx
+++ b/02_Data/major regions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhachaichi\Documents\ESPON-DATA\02_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2FA29B-34A0-4402-B5E7-7DA01EB8B6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986AB376-0723-4ABD-AF7C-EECC3A90696D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="350" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -524,16 +524,16 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6328125" customWidth="1"/>
-    <col min="2" max="2" width="34.81640625" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -541,7 +541,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,7 +549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -557,7 +557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -565,7 +565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -573,7 +573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -581,7 +581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -589,7 +589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -597,7 +597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
